--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3035080.924146523</v>
+        <v>3131750.900630897</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>300.8915849827645</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +715,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>182.1924483242554</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.7166970766743</v>
       </c>
       <c r="W4" t="n">
-        <v>252.4899179565723</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0314420927888</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.9437880924154</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>12.16591620102635</v>
       </c>
       <c r="W7" t="n">
-        <v>4.553842565068688</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>216.5271503917496</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>157.7357262271229</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3517689015297</v>
+        <v>94.32873841396597</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534536</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589034</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>133.9347793020667</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>193.7227085619089</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589034</v>
+        <v>250.9951719589007</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6194302168803</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1813,13 +1815,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>152.3526556900891</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>71.10462685426289</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8710045517908</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784698</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>32.75710584218468</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>13.70972818907165</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>90.39293227118779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>18.69174667297859</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>72.07252234110568</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>76.16829927623701</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710059</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2846,10 +2848,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>72.6340667865819</v>
       </c>
       <c r="S31" t="n">
-        <v>116.2670725139386</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>227.0229173645216</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.0103186534726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589034</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>131.4607804899601</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>120.8154218968292</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>214.1887938177447</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>271.8423046204454</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.3695298323903</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.43964097406254</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>45.10683729225659</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>45.84953208158554</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2118.304160219349</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>2118.304160219349</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="W4" t="n">
-        <v>443.6717438918015</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="X4" t="n">
-        <v>443.6717438918015</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>418.6523285934727</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1071.57741905687</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>567.6935213971573</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>567.6935213971573</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>567.6935213971573</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>567.6935213971573</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2130.832271356581</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1761.869754416169</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1403.604055809419</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1017.815803211174</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2537.820074627187</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2284.058289265279</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>1952.995401921708</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="X8" t="n">
-        <v>2520.971603332393</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>2130.832271356581</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.821920859872</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2759348564911</v>
+        <v>603.4305111065547</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>603.4305111065547</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,49 +5038,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972664</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1153.95253867896</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M11" t="n">
-        <v>1687.484443350885</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906986</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.4972173763014</v>
+        <v>692.8920075170273</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839444</v>
+        <v>523.9558245891204</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839444</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839444</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5230,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1002.69651745481</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W13" t="n">
-        <v>713.2793474178488</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X13" t="n">
-        <v>485.2897965198315</v>
+        <v>874.540472347267</v>
       </c>
       <c r="Y13" t="n">
-        <v>264.4972173763014</v>
+        <v>874.540472347267</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972664</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>3008.107474639232</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>3888.072124968687</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.5323180934831</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="C16" t="n">
-        <v>657.5961351655762</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="D16" t="n">
-        <v>507.4794957532405</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F16" t="n">
         <v>360.5895482553301</v>
@@ -5431,7 +5433,7 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5461,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1712.621437458101</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1490.854822027627</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U16" t="n">
-        <v>1490.854822027627</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V16" t="n">
-        <v>1236.17033382174</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W16" t="n">
-        <v>1236.17033382174</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X16" t="n">
-        <v>1008.180782923723</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y16" t="n">
-        <v>1008.180782923723</v>
+        <v>682.2576395672671</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>351.3014367967929</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866394</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139994</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969823</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196469</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5616,16 +5618,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508.7128420558663</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="C19" t="n">
-        <v>339.7766591279594</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7766591279594</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>460.4910241367934</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>313.601076638883</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>313.601076638883</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>167.3838898567408</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5701,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1569.906918071088</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1280.804051196731</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1026.119562990844</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>736.7023929538836</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X19" t="n">
-        <v>508.7128420558663</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.7128420558663</v>
+        <v>460.4910241367934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001577</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N20" t="n">
-        <v>3008.107474639232</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>3888.072124968687</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4282.846491325865</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3510.188831349828</v>
+        <v>3809.329117567117</v>
       </c>
       <c r="C22" t="n">
-        <v>3477.100845650651</v>
+        <v>3640.39293463921</v>
       </c>
       <c r="D22" t="n">
-        <v>3477.100845650651</v>
+        <v>3490.276295226874</v>
       </c>
       <c r="E22" t="n">
-        <v>3329.187752068258</v>
+        <v>3342.363201644481</v>
       </c>
       <c r="F22" t="n">
-        <v>3182.297804570348</v>
+        <v>3328.51499135249</v>
       </c>
       <c r="G22" t="n">
-        <v>3014.594967945066</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H22" t="n">
         <v>3014.594967945066</v>
@@ -5908,52 +5910,52 @@
         <v>2917.269290763412</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177249</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S22" t="n">
-        <v>4496.535381004075</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T22" t="n">
-        <v>4274.768765573601</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="U22" t="n">
-        <v>3985.665898699244</v>
+        <v>4466.454649746774</v>
       </c>
       <c r="V22" t="n">
-        <v>3730.981410493358</v>
+        <v>4211.770161540887</v>
       </c>
       <c r="W22" t="n">
-        <v>3730.981410493358</v>
+        <v>4211.770161540887</v>
       </c>
       <c r="X22" t="n">
-        <v>3730.981410493358</v>
+        <v>4211.770161540887</v>
       </c>
       <c r="Y22" t="n">
-        <v>3510.188831349828</v>
+        <v>3990.977582397357</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>3163.468180669545</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367489</v>
+        <v>3154.542034367486</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086362</v>
+        <v>2980.089005086359</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425111</v>
+        <v>2831.154595425108</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419655</v>
+        <v>2671.917140419652</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.38258244654</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279158</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H24" t="n">
         <v>2298.517587917025</v>
@@ -6069,49 +6071,49 @@
         <v>2373.18756580918</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789528</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102193</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324509</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878964</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297018</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773121</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012237</v>
+        <v>4777.907369012235</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505717</v>
+        <v>4648.469482505715</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183572</v>
+        <v>4455.82648218357</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317988</v>
+        <v>4227.758635317985</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086245</v>
+        <v>3992.606527086243</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>3738.369170358041</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152511</v>
+        <v>3530.517670152508</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387557</v>
+        <v>3322.757371387554</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3546.921188000631</v>
+        <v>708.7441371531723</v>
       </c>
       <c r="C25" t="n">
-        <v>3546.921188000631</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D25" t="n">
-        <v>3455.615195807512</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E25" t="n">
-        <v>3307.702102225119</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>4466.454649746775</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>4177.351782872418</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>4177.351782872418</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>4177.351782872418</v>
+        <v>909.27315417834</v>
       </c>
       <c r="X25" t="n">
-        <v>3949.362231974401</v>
+        <v>909.27315417834</v>
       </c>
       <c r="Y25" t="n">
-        <v>3728.569652830871</v>
+        <v>890.3926019834121</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427191</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.715908442899</v>
+        <v>2707.641918722171</v>
       </c>
       <c r="N26" t="n">
-        <v>2730.494725501681</v>
+        <v>3254.420735780953</v>
       </c>
       <c r="O26" t="n">
-        <v>3610.459375831136</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P26" t="n">
-        <v>4323.814463278081</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862918</v>
@@ -6251,22 +6253,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
         <v>2760.816196754296</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3452.575696086274</v>
+        <v>470.5284434797263</v>
       </c>
       <c r="C28" t="n">
-        <v>3379.775168468996</v>
+        <v>470.5284434797263</v>
       </c>
       <c r="D28" t="n">
-        <v>3379.775168468996</v>
+        <v>320.4118040673906</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.862074886602</v>
+        <v>172.4987104849974</v>
       </c>
       <c r="F28" t="n">
-        <v>3084.972127388692</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>4688.221265177248</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U28" t="n">
-        <v>4399.118398302891</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V28" t="n">
-        <v>4144.433910097005</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W28" t="n">
-        <v>3855.016740060044</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X28" t="n">
-        <v>3855.016740060044</v>
+        <v>872.9694874534962</v>
       </c>
       <c r="Y28" t="n">
-        <v>3634.224160916514</v>
+        <v>652.1769083099661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1390.197710791128</v>
+        <v>1364.144379432263</v>
       </c>
       <c r="M29" t="n">
-        <v>2368.748013620957</v>
+        <v>1897.676284104188</v>
       </c>
       <c r="N29" t="n">
-        <v>3348.500285847604</v>
+        <v>2877.428556330834</v>
       </c>
       <c r="O29" t="n">
-        <v>3851.472756726941</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6558,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.8431224204016</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="C31" t="n">
         <v>633.9069394924948</v>
@@ -6613,16 +6615,16 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1882.975721875833</v>
       </c>
       <c r="S31" t="n">
-        <v>1749.071521474415</v>
+        <v>1882.975721875833</v>
       </c>
       <c r="T31" t="n">
-        <v>1749.071521474415</v>
+        <v>1661.209106445359</v>
       </c>
       <c r="U31" t="n">
-        <v>1459.968654600058</v>
+        <v>1372.106239571003</v>
       </c>
       <c r="V31" t="n">
-        <v>1205.284166394172</v>
+        <v>1372.106239571003</v>
       </c>
       <c r="W31" t="n">
-        <v>1205.284166394172</v>
+        <v>1082.689069534042</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.284166394172</v>
+        <v>854.6995186360249</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.4915872506414</v>
+        <v>633.9069394924948</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,16 +6706,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O32" t="n">
-        <v>3907.560977731605</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.735988140349</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C34" t="n">
-        <v>340.7998052124422</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D34" t="n">
-        <v>340.7998052124422</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E34" t="n">
-        <v>192.8867116300491</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F34" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
         <v>192.8867116300491</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1445.511046543077</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>1445.511046543077</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>1156.093876506116</v>
       </c>
       <c r="Y34" t="n">
-        <v>509.735988140349</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143013</v>
@@ -6926,61 +6928,61 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>416.3606924710459</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>750.1800661608922</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.189928969821</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N35" t="n">
-        <v>3507.942201196468</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7120416113839</v>
+        <v>533.2127443498355</v>
       </c>
       <c r="C37" t="n">
-        <v>656.9233744498081</v>
+        <v>533.2127443498355</v>
       </c>
       <c r="D37" t="n">
-        <v>506.8067350374723</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7108,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.142636483171</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.142636483171</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.153085585154</v>
+        <v>935.6537883236053</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.3605064416237</v>
+        <v>714.8612091800752</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N38" t="n">
-        <v>3008.107474639232</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3888.072124968687</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7205,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.7209910686896</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7848081407827</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D40" t="n">
-        <v>388.668168728447</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E40" t="n">
         <v>388.668168728447</v>
@@ -7324,16 +7326,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7345,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1458.474807701436</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1169.37194082708</v>
       </c>
       <c r="V40" t="n">
-        <v>1163.957642384228</v>
+        <v>914.6874526211932</v>
       </c>
       <c r="W40" t="n">
-        <v>889.3694558989293</v>
+        <v>914.6874526211932</v>
       </c>
       <c r="X40" t="n">
-        <v>889.3694558989293</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3694558989293</v>
+        <v>686.6979017231758</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7397,7 +7399,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M41" t="n">
-        <v>1999.417367126748</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8133219477185</v>
+        <v>589.1512925299509</v>
       </c>
       <c r="C43" t="n">
-        <v>803.8133219477185</v>
+        <v>420.215109602044</v>
       </c>
       <c r="D43" t="n">
-        <v>653.6966825353827</v>
+        <v>270.0984701897082</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7582,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1385.724257814702</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>1131.039769608815</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>1131.039769608815</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X43" t="n">
-        <v>1131.039769608815</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y43" t="n">
-        <v>910.2471904652845</v>
+        <v>770.7997573601906</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M44" t="n">
-        <v>2006.06516444065</v>
+        <v>2330.649739272052</v>
       </c>
       <c r="N44" t="n">
-        <v>2985.817436667297</v>
+        <v>2877.428556330834</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996752</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.8948606428723</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8948606428723</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>241.7782212305366</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>241.7782212305366</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7831,25 +7833,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X46" t="n">
-        <v>619.8559841413803</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y46" t="n">
-        <v>573.5433254731121</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050831</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>85.51392558917661</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570125</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,13 +8929,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8944,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>124.0833809162825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.53663776704343</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.0833809162815</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,10 +9649,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>91.8712677893019</v>
+        <v>374.1693948021956</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>374.1693948021949</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>148.4180109385398</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>297.8289162490788</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>226.7688596193111</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10352,19 +10354,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>260.9678829613756</v>
       </c>
       <c r="P32" t="n">
-        <v>170.1140909277305</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>133.2530576400263</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>192.9047586887093</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>231.5010718068635</v>
+        <v>258.6211785616943</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,13 +11077,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,25 +11299,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>83.16722118949247</v>
+        <v>317.5146261106119</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>14.68069371614564</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>92.48912964370399</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.996042801332038</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.41636964135276</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>25.2477935555752</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>115.6779447243784</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>134.4897152564432</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.7113198338596</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>58.22254074702457</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>199.8929066791162</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>95.17429875752215</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>69.25274874669424</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.29808588346543</v>
       </c>
       <c r="S31" t="n">
-        <v>73.50195281750329</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>59.18892084109123</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.57433469862224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>35.78604060866775</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.80005112138311</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>5.360155458424458</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>14.68069371614564</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.46245034954697</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>69.99432167250663</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>174.4421119839126</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.7351212705092</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>735573.9104639814</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639817</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639817</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735573.9104639816</v>
+        <v>735573.9104639817</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846411</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.504384641</v>
-      </c>
       <c r="E2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="I2" t="n">
         <v>675039.0377078715</v>
@@ -26338,22 +26340,22 @@
         <v>675039.0377078715</v>
       </c>
       <c r="K2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078711</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="M2" t="n">
-        <v>675039.0377078713</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="N2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="O2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078719</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.540033842204138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709182</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709196</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371363</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26509,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857427</v>
+        <v>-167148.0492857429</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.8299288019</v>
+        <v>422819.829928802</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288017</v>
+        <v>422819.8299288023</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363408</v>
+        <v>-170341.5025363415</v>
       </c>
       <c r="F6" t="n">
-        <v>557035.9114570657</v>
+        <v>557035.9114570661</v>
       </c>
       <c r="G6" t="n">
-        <v>557035.911457066</v>
+        <v>557035.9114570661</v>
       </c>
       <c r="H6" t="n">
-        <v>557035.911457066</v>
+        <v>557035.9114570664</v>
       </c>
       <c r="I6" t="n">
         <v>557035.9114570661</v>
@@ -26546,22 +26548,22 @@
         <v>380612.6922644731</v>
       </c>
       <c r="K6" t="n">
-        <v>557035.9114570662</v>
+        <v>557035.9114570654</v>
       </c>
       <c r="L6" t="n">
-        <v>557035.911457066</v>
+        <v>557035.9114570661</v>
       </c>
       <c r="M6" t="n">
         <v>427393.596618121</v>
       </c>
       <c r="N6" t="n">
+        <v>557035.911457066</v>
+      </c>
+      <c r="O6" t="n">
         <v>557035.9114570661</v>
       </c>
-      <c r="O6" t="n">
-        <v>557035.9114570657</v>
-      </c>
       <c r="P6" t="n">
-        <v>557035.9114570656</v>
+        <v>557035.911457066</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.03118778159268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>167.0485203931576</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.42094624715372</v>
       </c>
       <c r="W4" t="n">
-        <v>34.0330803800187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6515995278942</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>270.9865819798464</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.9717271228017</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9691557715223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>190.3488953499618</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>58.71259413053488</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.68333655655462</v>
+        <v>130.7063670441183</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28339,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.882546173493495e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.002665031701325e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.634788304727408e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,19 +29565,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002915</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34778,10 +34780,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35018,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730095</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>541.1040399815088</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>685.300852969924</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35431,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35662,13 +35664,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>522.8453671356543</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.323638735756</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>671.9201333872388</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>374.877685720001</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597769</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>599.924268677521</v>
+        <v>882.2223956904146</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>913.0905106324215</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.2123157422593</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36834,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>753.4190306414109</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>625.5308458386829</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -37072,19 +37074,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>769.0208838495947</v>
       </c>
       <c r="P32" t="n">
-        <v>568.8760771471024</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>324.0400586087388</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>731.8258745189361</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>588.5617870086354</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>770.4221876370902</v>
+        <v>797.5422943919208</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M44" t="n">
-        <v>622.0883370197192</v>
+        <v>856.4357419408389</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859612</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3131750.900630897</v>
+        <v>3126029.288663014</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>351.2958555248362</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>182.1924483242554</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>22.03885654827553</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>159.7166970766743</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>110.9437880924154</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>371.7293199355301</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>12.16591620102635</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>20.33297654915573</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.7357262271229</v>
+        <v>96.48367255098523</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.32873841396597</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534536</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>133.9347793020667</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589007</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.6194302168803</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>81.17400253769641</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>71.10462685426289</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.70972818907165</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>161.2096726864234</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>178.0637136418914</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.69174667297859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.16829927623701</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710059</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2848,10 +2848,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589019</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.6340667865819</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>227.0229173645216</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>206.2850895321558</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589034</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>120.8154218968292</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>156.3460220671599</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>214.1887938177447</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>76.43964097406254</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>45.10683729225659</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>408.7872803303</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4360,22 +4360,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2118.304160219349</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2118.304160219349</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.6523285934727</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>418.6523285934727</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>418.6523285934727</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1429.84311766362</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>1429.84311766362</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D5" t="n">
-        <v>1071.57741905687</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>429.427143371405</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1816.442957727742</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1816.442957727742</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4652,13 +4652,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0450565669176</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>386.0450565669176</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>567.6935213971573</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>567.6935213971573</v>
+        <v>678.173704909394</v>
       </c>
       <c r="X7" t="n">
-        <v>567.6935213971573</v>
+        <v>450.1841540113767</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.6935213971573</v>
+        <v>450.1841540113767</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2537.820074627187</v>
+        <v>2544.66214644671</v>
       </c>
       <c r="U8" t="n">
-        <v>2284.058289265279</v>
+        <v>2290.900361084802</v>
       </c>
       <c r="V8" t="n">
-        <v>1952.995401921708</v>
+        <v>1959.837473741231</v>
       </c>
       <c r="W8" t="n">
-        <v>1600.226746651594</v>
+        <v>1607.068818471117</v>
       </c>
       <c r="X8" t="n">
-        <v>1600.226746651594</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="Y8" t="n">
-        <v>1210.087414675782</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600557</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>603.4305111065547</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>603.4305111065547</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>348.7460229006679</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,34 +5038,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>1923.729615463053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
         <v>4667.761053946816</v>
@@ -5074,16 +5074,16 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>692.8920075170273</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C13" t="n">
-        <v>523.9558245891204</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W13" t="n">
-        <v>874.540472347267</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X13" t="n">
-        <v>874.540472347267</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.540472347267</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,25 +5281,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>932.5990189467745</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5308,7 +5308,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604875</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>500.6091747370274</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>500.6091747370274</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T16" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>1131.039769608815</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>903.0502187107973</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>682.2576395672671</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,52 +5494,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5585,19 +5585,19 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5606,13 +5606,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.4910241367934</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C19" t="n">
-        <v>460.4910241367934</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D19" t="n">
-        <v>460.4910241367934</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E19" t="n">
-        <v>460.4910241367934</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="F19" t="n">
-        <v>313.601076638883</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="G19" t="n">
-        <v>313.601076638883</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>167.3838898567408</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.4910241367934</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001577</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427191</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844494</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188665</v>
@@ -5779,22 +5779,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
         <v>2760.816196754296</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3809.329117567117</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="C22" t="n">
-        <v>3640.39293463921</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D22" t="n">
-        <v>3490.276295226874</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>3342.363201644481</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>4466.454649746774</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>4466.454649746774</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>4211.770161540887</v>
+        <v>1090.95004640809</v>
       </c>
       <c r="W22" t="n">
-        <v>4211.770161540887</v>
+        <v>801.5328763711294</v>
       </c>
       <c r="X22" t="n">
-        <v>4211.770161540887</v>
+        <v>573.5433254731121</v>
       </c>
       <c r="Y22" t="n">
-        <v>3990.977582397357</v>
+        <v>573.5433254731121</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427191</v>
+        <v>932.5990189467736</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1797.117834600128</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867998</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N23" t="n">
-        <v>2883.99303492678</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O23" t="n">
         <v>3757.39320666029</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367486</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086359</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425108</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419652</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317985</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358041</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152508</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387554</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.7441371531723</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>539.8079542252655</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>389.6913148129298</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>909.27315417834</v>
+        <v>1205.86192080269</v>
       </c>
       <c r="W25" t="n">
-        <v>909.27315417834</v>
+        <v>916.4447507657294</v>
       </c>
       <c r="X25" t="n">
-        <v>909.27315417834</v>
+        <v>688.4551998677121</v>
       </c>
       <c r="Y25" t="n">
-        <v>890.3926019834121</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143013</v>
@@ -6214,40 +6214,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427191</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2707.641918722171</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780953</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6259,19 +6259,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>470.5284434797263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>470.5284434797263</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>320.4118040673906</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>172.4987104849974</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839441</v>
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431757</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.6435265574</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1100.959038351514</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>872.9694874534962</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>652.1769083099661</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1364.144379432263</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M29" t="n">
-        <v>1897.676284104188</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N29" t="n">
-        <v>2877.428556330834</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660289</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107235</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6539,16 +6539,16 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1882.975721875833</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1882.975721875833</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1661.209106445359</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1372.106239571003</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1372.106239571003</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1082.689069534042</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>854.6995186360249</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>633.9069394924948</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6709,43 +6709,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2996.062531649192</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.4454116758762</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C34" t="n">
-        <v>805.5092287479694</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6888,22 +6888,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.511046543077</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1445.511046543077</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W34" t="n">
-        <v>1156.093876506116</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X34" t="n">
-        <v>1156.093876506116</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y34" t="n">
-        <v>1156.093876506116</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.3606924710459</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>750.1800661608922</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1614.698881814247</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M35" t="n">
-        <v>2593.249184644075</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N35" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6964,10 +6964,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.2127443498355</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>533.2127443498355</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
         <v>263.2638710736754</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258583</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.060509258583</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.643339221623</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X37" t="n">
-        <v>935.6537883236053</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y37" t="n">
-        <v>714.8612091800752</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>806.1613418786392</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L38" t="n">
-        <v>1670.680157531994</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M38" t="n">
-        <v>2649.230460361822</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107237</v>
@@ -7201,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1458.474807701436</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1169.37194082708</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>914.6874526211932</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>914.6874526211932</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>686.6979017231758</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.6979017231758</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,7 +7399,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7414,19 +7414,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427193</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L41" t="n">
-        <v>1803.682313196074</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107237</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>589.1512925299509</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>420.215109602044</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>270.0984701897082</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1288.206478295169</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>998.7893082582079</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>770.7997573601906</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>770.7997573601906</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089262</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750622</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2330.649739272052</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330834</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
         <v>4470.748294107236</v>
@@ -7672,28 +7672,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1629.264662777688</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1629.264662777688</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1629.264662777688</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1339.847492740728</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>1111.85794184271</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050831</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8701,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>132.9990175570125</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>132.9990175570123</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106135</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>374.1693948021956</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>374.1693948021949</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>297.8289162490788</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>257.9017284501172</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10357,16 +10357,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>260.9678829613756</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>189.7998007892656</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11062,22 +11062,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>258.6211785616943</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>317.5146261106119</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>14.68069371614564</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.996042801332038</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>84.85180572133181</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>25.2477935555752</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>131.7113198338596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>90.9279706374046</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>74.07392968193665</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.8929066791162</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>69.25274874669424</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.29808588346543</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>59.18892084109123</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>80.23790880443519</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>27.80005112138311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>129.865816138453</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>5.360155458424458</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>69.99432167250663</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>174.4421119839126</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>735573.9104639817</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735573.9104639817</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735573.9104639817</v>
+        <v>735573.9104639816</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="F2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078718</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078715</v>
-      </c>
       <c r="J2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="K2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="L2" t="n">
         <v>675039.0377078711</v>
       </c>
-      <c r="L2" t="n">
-        <v>675039.0377078715</v>
-      </c>
       <c r="M2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="N2" t="n">
-        <v>675039.0377078715</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="O2" t="n">
         <v>675039.0377078715</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.0377078719</v>
+        <v>675039.0377078714</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934073</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
+      <c r="O4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709196</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709185</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26496,22 +26496,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857429</v>
+        <v>-167148.0492857425</v>
       </c>
       <c r="C6" t="n">
         <v>422819.829928802</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288023</v>
+        <v>422819.8299288016</v>
       </c>
       <c r="E6" t="n">
-        <v>-170341.5025363415</v>
+        <v>-171013.4574385984</v>
       </c>
       <c r="F6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548081</v>
       </c>
       <c r="G6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548084</v>
       </c>
       <c r="H6" t="n">
-        <v>557035.9114570664</v>
+        <v>556363.9565548081</v>
       </c>
       <c r="I6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.956554808</v>
       </c>
       <c r="J6" t="n">
-        <v>380612.6922644731</v>
+        <v>379940.7373622152</v>
       </c>
       <c r="K6" t="n">
-        <v>557035.9114570654</v>
+        <v>556363.956554808</v>
       </c>
       <c r="L6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548077</v>
       </c>
       <c r="M6" t="n">
-        <v>427393.596618121</v>
+        <v>426721.641715863</v>
       </c>
       <c r="N6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548081</v>
       </c>
       <c r="O6" t="n">
-        <v>557035.9114570661</v>
+        <v>556363.9565548082</v>
       </c>
       <c r="P6" t="n">
-        <v>557035.911457066</v>
+        <v>556363.9565548081</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503751</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.48831449595878</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>167.0485203931576</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>126.5766164699368</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>92.42094624715372</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>270.9865819798464</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.05485008526489</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>239.9717271228017</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>266.1900217874353</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>58.71259413053488</v>
+        <v>119.9646478066726</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.7063670441183</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.169471064289421e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28341,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.882546173493495e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.002665031701325e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29511,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.634788304727408e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29565,19 +29565,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730095</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
@@ -35421,10 +35421,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>685.300852969924</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35649,28 +35649,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,16 +35898,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>671.9201333872388</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>654.705912666014</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>882.2223956904146</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>913.0905106324215</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>753.4190306414109</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>810.2035638630286</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37077,16 +37077,16 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>769.0208838495947</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>324.0400586087388</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>526.991087344666</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>797.5422943919208</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>856.4357419408389</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3126029.288663014</v>
+        <v>3129434.779787462</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>351.2958555248362</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>40.62363183383273</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.03885654827553</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>16.91544265059222</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>371.7293199355301</v>
+        <v>270.9164994183795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>20.33297654915573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>43.53636164073731</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>96.48367255098523</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881751</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.360032484281</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>81.17400253769641</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>161.2096726864234</v>
+        <v>245.9987870162001</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447153</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>178.0637136418914</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491549</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>235.9955072668616</v>
+        <v>50.7109341869757</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3246,10 +3246,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>206.2850895321558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>156.3460220671599</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>111.9187566128689</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>67.337423715133</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.470460640181036</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819.7731851199076</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>819.7731851199076</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>819.7731851199076</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>819.7731851199076</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>408.7872803303</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1209.912517095719</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y2" t="n">
-        <v>819.7731851199076</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3364050629041</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>217.9192350259437</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>1078.595463490097</v>
       </c>
       <c r="D5" t="n">
-        <v>840.4130481610125</v>
+        <v>720.329764883347</v>
       </c>
       <c r="E5" t="n">
-        <v>840.4130481610125</v>
+        <v>334.5415122851028</v>
       </c>
       <c r="F5" t="n">
-        <v>429.427143371405</v>
+        <v>327.5960115358993</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>678.173704909394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1254.063537545214</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>843.0776327556064</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>425.1138246537932</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>97.91910468979609</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2544.66214644671</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2290.900361084802</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1959.837473741231</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1607.068818471117</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1233.603060210037</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.603060210037</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232731</v>
@@ -5068,22 +5068,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
         <v>2760.816196754298</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>578.4172407837245</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839441</v>
@@ -5232,19 +5232,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.949493898359</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.265005692472</v>
+        <v>1796.967499402969</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.847835655512</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X13" t="n">
-        <v>980.8582847574944</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.0657056139643</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5463,13 +5463,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
         <v>1015.408799357142</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5530,37 +5530,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,64 +5570,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.7083461157126</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>323.7721631878057</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967911</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866375</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139992</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969821</v>
+        <v>1832.617028429937</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.8948606428723</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8948606428723</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,19 +5925,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
         <v>1542.890966501056</v>
@@ -5946,16 +5946,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1090.95004640809</v>
+        <v>1005.304476378012</v>
       </c>
       <c r="W22" t="n">
-        <v>801.5328763711294</v>
+        <v>1005.304476378012</v>
       </c>
       <c r="X22" t="n">
-        <v>573.5433254731121</v>
+        <v>1005.304476378012</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.5433254731121</v>
+        <v>1005.304476378012</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467736</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.117834600128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272053</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107236</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U25" t="n">
-        <v>1385.724257814702</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V25" t="n">
-        <v>1205.86192080269</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>916.4447507657294</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>688.4551998677121</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.4551998677121</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6384,10 +6384,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,19 +6399,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
         <v>1559.196154437386</v>
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6463,25 +6463,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>932.5990189467743</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N29" t="n">
-        <v>2985.817436667297</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996752</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862918</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1112.734476538797</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>823.3173065018362</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>595.3277556038189</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,52 +6700,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>955.5888650790198</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>727.5993141810025</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6943,16 +6943,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1364.144379432265</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>1897.67628410419</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
         <v>4470.748294107237</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,16 +7046,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,49 +7171,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>932.5990189467745</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600129</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
@@ -7481,22 +7481,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7614,7 +7614,7 @@
         <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686752</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.72510052203</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193955</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420601</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750057</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>368.3587133864216</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>199.4225304585147</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T46" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.20647829517</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>998.7893082582088</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>770.7997573601915</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>550.0071782166614</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704161</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>63.01588120402465</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106135</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,16 +10123,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>257.9017284501172</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>297.8289162490807</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>317.5146261106144</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>201.9664098701098</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,10 +23472,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>84.85180572133191</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>84.85180572133181</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>90.9279706374046</v>
+        <v>6.138856307627918</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>74.07392968193665</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>105.0742887270142</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16.14213605696636</v>
+        <v>201.4267091368523</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>80.23790880443519</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>129.865816138453</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>112.4945564668043</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>142.1450123780313</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="G2" t="n">
         <v>675039.0377078718</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="I2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="J2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="K2" t="n">
         <v>675039.0377078713</v>
       </c>
       <c r="L2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078716</v>
       </c>
       <c r="M2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="N2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>675039.0377078715</v>
-      </c>
-      <c r="P2" t="n">
-        <v>675039.0377078714</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709184</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26484,7 +26484,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167148.0492857425</v>
+        <v>-167148.0492857427</v>
       </c>
       <c r="C6" t="n">
-        <v>422819.829928802</v>
+        <v>422819.8299288016</v>
       </c>
       <c r="D6" t="n">
-        <v>422819.8299288016</v>
+        <v>422819.8299288022</v>
       </c>
       <c r="E6" t="n">
-        <v>-171013.4574385984</v>
+        <v>-170408.6980265665</v>
       </c>
       <c r="F6" t="n">
-        <v>556363.9565548081</v>
+        <v>556968.7159668405</v>
       </c>
       <c r="G6" t="n">
-        <v>556363.9565548084</v>
+        <v>556968.7159668405</v>
       </c>
       <c r="H6" t="n">
-        <v>556363.9565548081</v>
+        <v>556968.7159668406</v>
       </c>
       <c r="I6" t="n">
-        <v>556363.956554808</v>
+        <v>556968.71596684</v>
       </c>
       <c r="J6" t="n">
-        <v>379940.7373622152</v>
+        <v>380545.496774247</v>
       </c>
       <c r="K6" t="n">
-        <v>556363.956554808</v>
+        <v>556968.71596684</v>
       </c>
       <c r="L6" t="n">
-        <v>556363.9565548077</v>
+        <v>556968.7159668403</v>
       </c>
       <c r="M6" t="n">
-        <v>426721.641715863</v>
+        <v>427326.4011278953</v>
       </c>
       <c r="N6" t="n">
-        <v>556363.9565548081</v>
+        <v>556968.71596684</v>
       </c>
       <c r="O6" t="n">
-        <v>556363.9565548082</v>
+        <v>556968.7159668402</v>
       </c>
       <c r="P6" t="n">
-        <v>556363.9565548081</v>
+        <v>556968.7159668402</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.48831449595878</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>329.1074688446363</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>126.5766164699368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>129.518519995977</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>42.05485008526489</v>
+        <v>142.8676706024154</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>266.1900217874353</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>108.3949546041239</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>119.9646478066726</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33985,13 +33985,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357542</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>518.6059955963566</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>654.705912666014</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660148</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>810.2035638630286</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37311,19 +37311,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>753.4190306414129</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,16 +37557,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37782,7 +37782,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>654.7059126660149</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37791,13 +37791,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255104</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
